--- a/Hardware/Vaccum Insert/Manta active vaccum tag BOM.xlsx
+++ b/Hardware/Vaccum Insert/Manta active vaccum tag BOM.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\manta-ray-active-vacuum-tag\manta-ray-active-vacuum-tag\Hardware\Vaccum Insert\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B6871C-C181-4DC0-837D-21F18B1C4750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="BOM" sheetId="1" r:id="rId4"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -70,9 +79,6 @@
     <t>Insert</t>
   </si>
   <si>
-    <t>VacuumCupInsert_Julians001_WithNutSpace_OneVent.step</t>
-  </si>
-  <si>
     <t>ABS Black</t>
   </si>
   <si>
@@ -263,28 +269,33 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>VacuumCupInsert_001_WithNutSpace_OneVent.step</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$£]#,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -294,7 +305,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -316,47 +327,48 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -546,28 +558,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="62.75"/>
-    <col customWidth="1" min="3" max="3" width="17.88"/>
-    <col customWidth="1" min="4" max="4" width="42.25"/>
-    <col customWidth="1" min="6" max="6" width="10.38"/>
-    <col customWidth="1" min="7" max="7" width="10.88"/>
-    <col customWidth="1" min="8" max="8" width="18.5"/>
+    <col min="2" max="2" width="62.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,7 +610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -613,13 +630,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="3">
         <v>84.48</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -639,91 +656,91 @@
         <v>17</v>
       </c>
       <c r="G3" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <v>55.8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="G4" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <v>215.1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="G5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3">
         <v>41.66</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3">
         <v>80.91</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -733,10 +750,11 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>32</v>
-      </c>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -744,85 +762,85 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="G9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="3">
         <v>2.5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="G10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3">
         <v>2.5</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3">
         <v>2.5</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -832,10 +850,11 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>47</v>
-      </c>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="6"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -843,85 +862,85 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="G14" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="3">
         <v>2.5</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="G15" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H15" s="3">
         <v>2.1</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="G16" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -931,10 +950,11 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>63</v>
-      </c>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="6"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -942,105 +962,105 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="H20" s="6">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>2.49</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="G22" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="3">
         <v>5.95</v>
@@ -1052,6 +1072,6 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A18:B18"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Hardware/Vaccum Insert/Manta active vaccum tag BOM.xlsx
+++ b/Hardware/Vaccum Insert/Manta active vaccum tag BOM.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\manta-ray-active-vacuum-tag\manta-ray-active-vacuum-tag\Hardware\Vaccum Insert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B6871C-C181-4DC0-837D-21F18B1C4750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADBEBC6-115A-487E-B4B4-2D095424D9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4185" yWindow="540" windowWidth="19995" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -121,9 +134,6 @@
     <t>Body assembly</t>
   </si>
   <si>
-    <t>Accu Marine M3x20mm bolts</t>
-  </si>
-  <si>
     <t>Accu</t>
   </si>
   <si>
@@ -136,9 +146,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>Accu Marine M3x30mm bolts</t>
-  </si>
-  <si>
     <t>Secures the lid of the tag in place</t>
   </si>
   <si>
@@ -148,9 +155,6 @@
     <t>G</t>
   </si>
   <si>
-    <t>Accu Marine M3x50mm bolts</t>
-  </si>
-  <si>
     <t>Acuu</t>
   </si>
   <si>
@@ -272,6 +276,15 @@
   </si>
   <si>
     <t>VacuumCupInsert_001_WithNutSpace_OneVent.step</t>
+  </si>
+  <si>
+    <t>Accu Marine M3x20mm socket flanged bolts</t>
+  </si>
+  <si>
+    <t>Accu Marine M3x30mm socket flanged bolts</t>
+  </si>
+  <si>
+    <t>Accu Marine M3x50mm socket flanged bolts</t>
   </si>
 </sst>
 </file>
@@ -571,11 +584,12 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="62.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="42.28515625" customWidth="1"/>
@@ -667,7 +681,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -767,19 +781,19 @@
         <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -793,19 +807,19 @@
         <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
@@ -819,19 +833,19 @@
         <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
@@ -852,7 +866,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="2"/>
@@ -864,22 +878,22 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="G14" s="3">
         <v>2</v>
@@ -890,22 +904,22 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
@@ -916,22 +930,22 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G16" s="3">
         <v>1</v>
@@ -952,7 +966,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="2"/>
@@ -964,22 +978,22 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
@@ -990,22 +1004,22 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
@@ -1016,22 +1030,22 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
@@ -1042,22 +1056,22 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="G22" s="3">
         <v>1</v>
